--- a/medicine/Enfance/Christophe_Honoré/Christophe_Honoré.xlsx
+++ b/medicine/Enfance/Christophe_Honoré/Christophe_Honoré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Christophe_Honor%C3%A9</t>
+          <t>Christophe_Honoré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christophe Honoré est un réalisateur, scénariste, écrivain, dramaturge et metteur en scène français, né le 10 avril 1970 à Carhaix (Finistère).
 En tant que cinéaste, il a réalisé quatorze longs métrages dont Les Chansons d'amour (2007), Les Bien-aimés (2011) et Plaire, aimer et courir vite (2018) pour lequel il remporte le prix Louis-Delluc.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Christophe_Honor%C3%A9</t>
+          <t>Christophe_Honoré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,37 +528,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et formations
-Christophe Honoré naît le 10 avril 1970 à Carhaix, dans le Finistère, et grandit à Rostrenen, dans les Côtes-d'Armor. Son père meurt en 1985, alors qu'il a 15 ans[1],[2].
-Adolescent, il se rend au cinéma tous les week-ends avec ses copains, au Ciné Breiz. Il commence à s'intéresser au cinéma et tient la chronique "cinéma" du journal de son école. Avec son frère, il crée l’association Le Théâtre du zénith et monte des pièces dans les salles des fêtes comme La Musica de Duras ou Le Père Noël est une ordure de la troupe du Splendid. Fervent lecteur des Cahiers du cinéma et de critiques, Christophe Honoré décide d'étudier en 1988 à l'Université Rennes-II[3] pour suivre une formation de lettres ainsi qu’une école de cinéma. Il déserte finalement l'université au profit du cinéma[4].
-Carrière
-Débuts (1995-1998)
-En 1995, Christophe Honoré s'installe à Paris, et publie son premier livre pour enfants (Tout contre Léo[5]), mais aussi des romans et des pièces de théâtre. Il devient chroniqueur pour plusieurs revues, dont les Cahiers du cinéma[6]. Parallèlement, il est embauché comme stagiaire pour le festival Premiers plans d’Angers [consacré aux premières œuvres cinématographiques européennes]. Honoré rédigeait alors les fiches de tous les films. Par la suite, Claude-Eric Poiroux, délégué général du festival, l'a embauché et envoyé au Festival de Cannes[7].
-Par la suite, il entame la rédaction d'un journal de bord de cinéphile qu'il fait parvenir à Serge Toubiana, alors rédacteur en chef des Cahiers du cinéma. Il est embauché la semaine suivante et se voit offrir une chronique mensuelle « Le billet du spectateur »[7].
-En 1998, il publie « Triste moralité du cinéma français », un texte polémique sur le cinéma français, dans lequel il critique notamment le film de Robert Guédiguian Marius et Jeannette et le film d'Anne Fontaine Nettoyage à sec qu'il trouve moralisateurs. Le texte fait polémique et suscite notamment de vives réactions de la part de Robert Guédiguian et de l'Association du cinéma indépendant pour sa diffusion. Serge Toubiana, alors directeur de la rédaction des Cahiers du cinéma, considère cependant que la critique d'Honoré est légitime.
-Premières réalisations (1998-2006)
-Christophe Honoré crée sa première pièce de théâtre, Les Débutantes, au Festival Off d’Avignon en 1998, pièce diffusée par la suite sur France Culture en octobre 2003[8].
-Après un court métrage en 2001, intitulé Nous deux, il est révélé, en 2002, auprès de la critique par deux longs-métrages : tout d'abord le drame 17 Fois Cécile Cassard, opposant l'actrice confirmée Béatrice Dalle et la valeur montante Romain Duris. Et pour la télévision, il adapte sous la forme d'un téléfilm son roman Tout contre Léo, sorti en 1996. Le premier rôle est tenu par Yaniss Lespert.
-En 2004, sort son film Ma mère, adapté du roman du même nom de Georges Bataille, dont il confie les deux rôles principaux à Isabelle Huppert et Louis Garrel. Le film rassemble 125 000 spectateurs en Europe dont 90 000 en France[9]. Honoré lui-même dit que cette adaptation était une impasse et qu'il n'a trouvé sa manière personnelle de faire du cinéma qu'avec son film suivant Dans Paris[10].
-En 2005, il revient, invité officiellement au Festival d'Avignon, avec une nouvelle pièce, Dionysos impuissant, adaptation contemporaine des Bacchantes d'Euripide avec Louis Garrel dans le rôle de Dionysos et Joana Preiss dans le rôle de Sémélé.
-Porté par le tandem Louis Garrel-Romain Duris, son film suivant, Dans Paris (2006), rassemble 220 000 spectateurs en Europe dont 195 000 en France[11].
-Reconnaissance (2007-2012)
-En 2007, Christophe Honoré réalise le drame musical Les Chansons d'amour, sélectionné en compétition officielle lors du Festival de Cannes 2007. Ce film est nommé dans quatre catégories pour les César du cinéma 2008 et remporte le César de la meilleure musique originale pour le compositeur Alex Beaupain, son fréquent collaborateur.
-En janvier 2008, il commence le tournage de La Belle Personne une version contemporaine de la Princesse de Clèves pour Arte, diffusée en septembre 2008 avant de sortir quelques jours plus tard au cinéma. Il dit avoir eu envie de réaliser ce film en réaction à des propos de Nicolas Sarkozy, alors Président de la République française, qui avait déconsidéré cet ouvrage[10].
-En 2008, il met en scène Angelo, tyran de Padoue de Victor Hugo. Le spectacle est créé au Festival d'Avignon, puis repris en tournée[10]. Clotilde Hesme, Emmanuelle Devos, Marcial Di Fonzo Bo font entre autres partie de la distribution. Il devient artiste associé au théâtre de Lorient.
-En 2009, il réalise son septième long-métrage, intitulé Non ma fille, tu n'iras pas danser, avec Chiara Mastroianni dans le rôle principal[10].
-Le 24 août 2011, il revient au film musical avec Les Bien-aimés qui est sélectionné comme film de clôture du 64e festival de Cannes[12].
-En janvier 2012, il préside le jury de la 24e édition du Festival Premiers Plans d'Angers d'Angers[13].
-Pour le Festival d'Avignon 2012 en coproduction avec le Théâtre national de la Colline, il écrit et met en scène Nouveau Roman[14], une pièce de théâtre sur les écrivains du « nouveau roman » avec pour interprètes principaux Anaïs Demoustier, Ludivine Sagnier, Brigitte Catillon, Annie Mercier et Julien Honoré. La même année, il écrit deux pièces de théâtre, Un jeune se tue, mis en scène au festival d'Avignon par les élèves de l'école de la Comédie de Saint-Étienne, et La Faculté, également mis en scène au festival d'Avignon par Éric Vigner[15].
-Diversification (depuis 2013)
-En mai 2013, Christophe Honoré commence le tournage d'une adaptation cinématographique des Métamorphoses d'Ovide[16]. Le long-métrage, sorti en 2014, amène le réalisateur encore plus loin dans le cinéma d'auteur. Il renonce d'ailleurs à des acteurs connus pour diriger des novices.
-En 2014, il signe sa première mise en scène lyrique avec Dialogues des carmélites de Francis Poulenc[5].
-En 2016, il surprend en se lançant dans un cinéma plus grand public, avec Les Malheurs de Sophie, une adaptation du classique homonyme de la comtesse de Ségur. Le cinéaste y dirige Anaïs Demoustier dans le rôle de Mme de Fleurville, Golshifteh Farahani dans celui de Mme de Réan et surtout Muriel Robin dans le rôle de l'impitoyable Mme Fichini. La même année, il fonde sa compagnie Comité dans Paris, dans le but de porter la production et la diffusion de ses spectacles, dont Les Idoles (2018) pour lequel il remporte le prix de la Critique, et Le Ciel de Nantes (2021) avec le théâtre de Vidy-Lausanne. Les deux spectacles sont présentés en tournée nationale ainsi qu'au théâtre de l'Odéon.
-En mai 2018, son nouveau film, tourné en 2017 dans sa Bretagne natale, Plaire, aimer et courir vite[17] semble annoncer un retour à ses premiers succès critiques : le film, qui raconte l'histoire d'un étudiant (Vincent Lacoste) tombant amoureux d'un écrivain (Pierre Deladonchamps) dans les années 1990, est présenté en sélection officielle au Festival de Cannes 2018.
-Il intervenait régulièrement dans l'émission radiophonique de Claire Vassé Le Cinéma l'après-midi, sur France Culture[18] et a enseigné à la Femis[19].
-En 2018, il abandonne un projet de film dont l'histoire se déroulait durant l'occupation pour se consacrer à l'écriture de Chambre 212, en souhaitant aborder le thème de la conversation conjugale[20]. L'année suivante, le film est présenté au Festival de cannes dans la section Un certain regard ; Chiara Mastroianni y remporte le prix d'interprétation et offre son prix à Christophe Honoré[21],[22].
-En 2022, il signe Le Lycéen, sans doute son film le plus personnel. Christophe Honoré puise dans sa propre histoire – il a perdu son père lorsqu’il avait 15 ans – pour raconter l’histoire de Lucas, un adolescent gay de 17 ans qui mène une existence teintée d’insouciance et dont la vie vole en éclats à la mort brutale de son père[23]. Le film est sélectionné en compétition officielle au Festival international du film de Saint-Sébastien[24].
-En 2023, il tourne son seizième long-métrage qui est une variation fantaisiste centrée sur Chiara Mastroianni qui faire revivre la figure de son père. Elle se fait appeler Marcello, s’habille comme lui et tient à ce qu’on la considère désormais comme un acteur. Le film, intitulé Marcello mio met notamment en scène Catherine Deneuve, Fabrice Luchini, Melvil Poupaud, Nicole Garcia, Benjamin Biolay et Hugh Skinner[25].
+          <t>Jeunesse et formations</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christophe Honoré naît le 10 avril 1970 à Carhaix, dans le Finistère, et grandit à Rostrenen, dans les Côtes-d'Armor. Son père meurt en 1985, alors qu'il a 15 ans,.
+Adolescent, il se rend au cinéma tous les week-ends avec ses copains, au Ciné Breiz. Il commence à s'intéresser au cinéma et tient la chronique "cinéma" du journal de son école. Avec son frère, il crée l’association Le Théâtre du zénith et monte des pièces dans les salles des fêtes comme La Musica de Duras ou Le Père Noël est une ordure de la troupe du Splendid. Fervent lecteur des Cahiers du cinéma et de critiques, Christophe Honoré décide d'étudier en 1988 à l'Université Rennes-II pour suivre une formation de lettres ainsi qu’une école de cinéma. Il déserte finalement l'université au profit du cinéma.
 </t>
         </is>
       </c>
@@ -557,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Christophe_Honor%C3%A9</t>
+          <t>Christophe_Honoré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -572,16 +561,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Prises de positions cinématographiques</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Christophe Honoré cite régulièrement Jacques Demy comme une de ses principales influences et le décrit comme un « parrain imaginaire »[7], en avouant se reconnaître dans « sa manière de filmer les hommes et de rêver le cinéma depuis un territoire provincial très simple »[4]. Il cite Lola parmi ses films préférés.
-Il cite régulièrement François Truffaut qu'il a découvert à l'adolescence par la lecture de sa correspondance[26]. Il le qualifie de « figure même du cinéaste». Il déclare à son propos « J'avais l’impression que Truffaut c’était à la fois Renoir, Vigo, la nouvelle vague à lui tout seul, et tout le cinéma des années 70 que je voyais à la télévision depuis la porte de la salle à manger quand je me cachais de mes parents. »[26]
-A la fin des années 90, Christophe Honoré signe dans les Cahiers du Cinéma des textes polémiques dont le héros est un dénommé Roland Cassard, clin d'oeil à un personnage-clé de l’œuvre de Demy[27]. Il y pose les bases de son propre cinéma, qu'il s'apprête à faire exister sur pellicule[28].
-Il loue Mystery Train de Jim Jarmusch en saluant la capacité du réalisateur à envisager le cinéma comme « un acte de nécromancie qui convoque toujours des fantômes. »[29]
-En 2022, à l’invitation du journal Le Monde, Christophe Honoré, rend un vibrant hommage post-mortem à Jean-Luc Godard et à son cinéma et appelle spectateurs et cinéastes à chercher les échos de son œuvre dans les films à venir. Il déclare « Jean-Luc Godard n’est pas un cinéaste qui m’a marqué, qui m’a construit ; il est le cinéaste auquel j’ai cru ». Il ajoute « Les cinéastes capables de produire des films comme des étreintes ne sont pas si rares, mais aucune étreinte n’est exaltante comme celle d’un film de Jean-Luc Godard.» [30]
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Débuts (1995-1998)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1995, Christophe Honoré s'installe à Paris, et publie son premier livre pour enfants (Tout contre Léo), mais aussi des romans et des pièces de théâtre. Il devient chroniqueur pour plusieurs revues, dont les Cahiers du cinéma. Parallèlement, il est embauché comme stagiaire pour le festival Premiers plans d’Angers [consacré aux premières œuvres cinématographiques européennes]. Honoré rédigeait alors les fiches de tous les films. Par la suite, Claude-Eric Poiroux, délégué général du festival, l'a embauché et envoyé au Festival de Cannes.
+Par la suite, il entame la rédaction d'un journal de bord de cinéphile qu'il fait parvenir à Serge Toubiana, alors rédacteur en chef des Cahiers du cinéma. Il est embauché la semaine suivante et se voit offrir une chronique mensuelle « Le billet du spectateur ».
+En 1998, il publie « Triste moralité du cinéma français », un texte polémique sur le cinéma français, dans lequel il critique notamment le film de Robert Guédiguian Marius et Jeannette et le film d'Anne Fontaine Nettoyage à sec qu'il trouve moralisateurs. Le texte fait polémique et suscite notamment de vives réactions de la part de Robert Guédiguian et de l'Association du cinéma indépendant pour sa diffusion. Serge Toubiana, alors directeur de la rédaction des Cahiers du cinéma, considère cependant que la critique d'Honoré est légitime.
 </t>
         </is>
       </c>
@@ -592,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Christophe_Honor%C3%A9</t>
+          <t>Christophe_Honoré</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -607,14 +604,26 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Engagements publics</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">En 2009, il intervient dans le débat public en signant avec d'autres personnalités du cinéma comme Gaël Morel, Paulo Branco ou encore Jeanne Balibar, une « lettre ouverte aux spectateurs citoyens » contre l'adoption de la loi Création et Internet et défend d'autres voies comme l'adoption d'une licence globale[31].
-En 2010, il publie une tribune dans Le Monde pour défendre la littérature jeunesse, notamment après la décision du conseil général de Seine Saint-Denis de réduire les subventions qu'il accordait jusqu'alors au Salon du livre de jeunesse de Montreuil[32].
-Ouvertement homosexuel[33], il signe en novembre 2012, au moment du débat sur l'adoption de la loi visant à instituer le mariage pour tous, avec d'autres personnalités du monde de la culture une tribune dans Le Monde dénonçant le discours tenu par des responsables politiques et des responsables religieux à l'égard des homosexuels[34].
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Premières réalisations (1998-2006)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christophe Honoré crée sa première pièce de théâtre, Les Débutantes, au Festival Off d’Avignon en 1998, pièce diffusée par la suite sur France Culture en octobre 2003.
+Après un court métrage en 2001, intitulé Nous deux, il est révélé, en 2002, auprès de la critique par deux longs-métrages : tout d'abord le drame 17 Fois Cécile Cassard, opposant l'actrice confirmée Béatrice Dalle et la valeur montante Romain Duris. Et pour la télévision, il adapte sous la forme d'un téléfilm son roman Tout contre Léo, sorti en 1996. Le premier rôle est tenu par Yaniss Lespert.
+En 2004, sort son film Ma mère, adapté du roman du même nom de Georges Bataille, dont il confie les deux rôles principaux à Isabelle Huppert et Louis Garrel. Le film rassemble 125 000 spectateurs en Europe dont 90 000 en France. Honoré lui-même dit que cette adaptation était une impasse et qu'il n'a trouvé sa manière personnelle de faire du cinéma qu'avec son film suivant Dans Paris.
+En 2005, il revient, invité officiellement au Festival d'Avignon, avec une nouvelle pièce, Dionysos impuissant, adaptation contemporaine des Bacchantes d'Euripide avec Louis Garrel dans le rôle de Dionysos et Joana Preiss dans le rôle de Sémélé.
+Porté par le tandem Louis Garrel-Romain Duris, son film suivant, Dans Paris (2006), rassemble 220 000 spectateurs en Europe dont 195 000 en France.
 </t>
         </is>
       </c>
@@ -625,7 +634,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Christophe_Honor%C3%A9</t>
+          <t>Christophe_Honoré</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -640,13 +649,185 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Reconnaissance (2007-2012)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2007, Christophe Honoré réalise le drame musical Les Chansons d'amour, sélectionné en compétition officielle lors du Festival de Cannes 2007. Ce film est nommé dans quatre catégories pour les César du cinéma 2008 et remporte le César de la meilleure musique originale pour le compositeur Alex Beaupain, son fréquent collaborateur.
+En janvier 2008, il commence le tournage de La Belle Personne une version contemporaine de la Princesse de Clèves pour Arte, diffusée en septembre 2008 avant de sortir quelques jours plus tard au cinéma. Il dit avoir eu envie de réaliser ce film en réaction à des propos de Nicolas Sarkozy, alors Président de la République française, qui avait déconsidéré cet ouvrage.
+En 2008, il met en scène Angelo, tyran de Padoue de Victor Hugo. Le spectacle est créé au Festival d'Avignon, puis repris en tournée. Clotilde Hesme, Emmanuelle Devos, Marcial Di Fonzo Bo font entre autres partie de la distribution. Il devient artiste associé au théâtre de Lorient.
+En 2009, il réalise son septième long-métrage, intitulé Non ma fille, tu n'iras pas danser, avec Chiara Mastroianni dans le rôle principal.
+Le 24 août 2011, il revient au film musical avec Les Bien-aimés qui est sélectionné comme film de clôture du 64e festival de Cannes.
+En janvier 2012, il préside le jury de la 24e édition du Festival Premiers Plans d'Angers d'Angers.
+Pour le Festival d'Avignon 2012 en coproduction avec le Théâtre national de la Colline, il écrit et met en scène Nouveau Roman, une pièce de théâtre sur les écrivains du « nouveau roman » avec pour interprètes principaux Anaïs Demoustier, Ludivine Sagnier, Brigitte Catillon, Annie Mercier et Julien Honoré. La même année, il écrit deux pièces de théâtre, Un jeune se tue, mis en scène au festival d'Avignon par les élèves de l'école de la Comédie de Saint-Étienne, et La Faculté, également mis en scène au festival d'Avignon par Éric Vigner.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Christophe_Honoré</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Honor%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Diversification (depuis 2013)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mai 2013, Christophe Honoré commence le tournage d'une adaptation cinématographique des Métamorphoses d'Ovide. Le long-métrage, sorti en 2014, amène le réalisateur encore plus loin dans le cinéma d'auteur. Il renonce d'ailleurs à des acteurs connus pour diriger des novices.
+En 2014, il signe sa première mise en scène lyrique avec Dialogues des carmélites de Francis Poulenc.
+En 2016, il surprend en se lançant dans un cinéma plus grand public, avec Les Malheurs de Sophie, une adaptation du classique homonyme de la comtesse de Ségur. Le cinéaste y dirige Anaïs Demoustier dans le rôle de Mme de Fleurville, Golshifteh Farahani dans celui de Mme de Réan et surtout Muriel Robin dans le rôle de l'impitoyable Mme Fichini. La même année, il fonde sa compagnie Comité dans Paris, dans le but de porter la production et la diffusion de ses spectacles, dont Les Idoles (2018) pour lequel il remporte le prix de la Critique, et Le Ciel de Nantes (2021) avec le théâtre de Vidy-Lausanne. Les deux spectacles sont présentés en tournée nationale ainsi qu'au théâtre de l'Odéon.
+En mai 2018, son nouveau film, tourné en 2017 dans sa Bretagne natale, Plaire, aimer et courir vite semble annoncer un retour à ses premiers succès critiques : le film, qui raconte l'histoire d'un étudiant (Vincent Lacoste) tombant amoureux d'un écrivain (Pierre Deladonchamps) dans les années 1990, est présenté en sélection officielle au Festival de Cannes 2018.
+Il intervenait régulièrement dans l'émission radiophonique de Claire Vassé Le Cinéma l'après-midi, sur France Culture et a enseigné à la Femis.
+En 2018, il abandonne un projet de film dont l'histoire se déroulait durant l'occupation pour se consacrer à l'écriture de Chambre 212, en souhaitant aborder le thème de la conversation conjugale. L'année suivante, le film est présenté au Festival de cannes dans la section Un certain regard ; Chiara Mastroianni y remporte le prix d'interprétation et offre son prix à Christophe Honoré,.
+En 2022, il signe Le Lycéen, sans doute son film le plus personnel. Christophe Honoré puise dans sa propre histoire – il a perdu son père lorsqu’il avait 15 ans – pour raconter l’histoire de Lucas, un adolescent gay de 17 ans qui mène une existence teintée d’insouciance et dont la vie vole en éclats à la mort brutale de son père. Le film est sélectionné en compétition officielle au Festival international du film de Saint-Sébastien.
+En 2023, il tourne son seizième long-métrage qui est une variation fantaisiste centrée sur Chiara Mastroianni qui faire revivre la figure de son père. Elle se fait appeler Marcello, s’habille comme lui et tient à ce qu’on la considère désormais comme un acteur. Le film, intitulé Marcello mio met notamment en scène Catherine Deneuve, Fabrice Luchini, Melvil Poupaud, Nicole Garcia, Benjamin Biolay et Hugh Skinner.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Christophe_Honoré</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Honor%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Prises de positions cinématographiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christophe Honoré cite régulièrement Jacques Demy comme une de ses principales influences et le décrit comme un « parrain imaginaire », en avouant se reconnaître dans « sa manière de filmer les hommes et de rêver le cinéma depuis un territoire provincial très simple ». Il cite Lola parmi ses films préférés.
+Il cite régulièrement François Truffaut qu'il a découvert à l'adolescence par la lecture de sa correspondance. Il le qualifie de « figure même du cinéaste». Il déclare à son propos « J'avais l’impression que Truffaut c’était à la fois Renoir, Vigo, la nouvelle vague à lui tout seul, et tout le cinéma des années 70 que je voyais à la télévision depuis la porte de la salle à manger quand je me cachais de mes parents. »
+A la fin des années 90, Christophe Honoré signe dans les Cahiers du Cinéma des textes polémiques dont le héros est un dénommé Roland Cassard, clin d'oeil à un personnage-clé de l’œuvre de Demy. Il y pose les bases de son propre cinéma, qu'il s'apprête à faire exister sur pellicule.
+Il loue Mystery Train de Jim Jarmusch en saluant la capacité du réalisateur à envisager le cinéma comme « un acte de nécromancie qui convoque toujours des fantômes. »
+En 2022, à l’invitation du journal Le Monde, Christophe Honoré, rend un vibrant hommage post-mortem à Jean-Luc Godard et à son cinéma et appelle spectateurs et cinéastes à chercher les échos de son œuvre dans les films à venir. Il déclare « Jean-Luc Godard n’est pas un cinéaste qui m’a marqué, qui m’a construit ; il est le cinéaste auquel j’ai cru ». Il ajoute « Les cinéastes capables de produire des films comme des étreintes ne sont pas si rares, mais aucune étreinte n’est exaltante comme celle d’un film de Jean-Luc Godard.» 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Christophe_Honoré</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Honor%C3%A9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Engagements publics</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2009, il intervient dans le débat public en signant avec d'autres personnalités du cinéma comme Gaël Morel, Paulo Branco ou encore Jeanne Balibar, une « lettre ouverte aux spectateurs citoyens » contre l'adoption de la loi Création et Internet et défend d'autres voies comme l'adoption d'une licence globale.
+En 2010, il publie une tribune dans Le Monde pour défendre la littérature jeunesse, notamment après la décision du conseil général de Seine Saint-Denis de réduire les subventions qu'il accordait jusqu'alors au Salon du livre de jeunesse de Montreuil.
+Ouvertement homosexuel, il signe en novembre 2012, au moment du débat sur l'adoption de la loi visant à instituer le mariage pour tous, avec d'autres personnalités du monde de la culture une tribune dans Le Monde dénonçant le discours tenu par des responsables politiques et des responsables religieux à l'égard des homosexuels.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Christophe_Honoré</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Honor%C3%A9</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Réalisateur et scénariste
-2001 : Nous deux (court métrage)
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Réalisateur et scénariste</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2001 : Nous deux (court métrage)
 2002 : 17 Fois Cécile Cassard
 2002 : Tout contre Léo (téléfilm)
 2004 : Ma mère
@@ -656,7 +837,7 @@
 2008 : Hôtel Kuntz (court métrage)
 2009 : Non ma fille, tu n'iras pas danser
 2010 : Homme au bain
-2011 : Avant la haine (clip), chanson d'Alex Beaupain chanté par Camélia Jordana et Alex Beaupain[35]
+2011 : Avant la haine (clip), chanson d'Alex Beaupain chanté par Camélia Jordana et Alex Beaupain
 2011 : Les Bien-aimés
 2014 : Métamorphoses
 2016 : Les Malheurs de Sophie
@@ -664,9 +845,43 @@
 2019 : Chambre 212
 2021 : Guermantes
 2022 : Le Lycéen
-2024 : Marcello mio
-Scénariste
-2000 : Les filles ne savent pas nager d'Anne-Sophie Birot
+2024 : Marcello mio</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Christophe_Honoré</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Honor%C3%A9</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Scénariste</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2000 : Les filles ne savent pas nager d'Anne-Sophie Birot
 2002 : Novo de Jean-Pierre Limosin
 2004 : Le Clan de Gaël Morel
 2007 : Après lui de Gaël Morel
@@ -676,47 +891,88 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Christophe_Honor%C3%A9</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Christophe_Honor%C3%A9</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Christophe_Honoré</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Honor%C3%A9</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Théâtre</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Auteur
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Auteur</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1998 : Les Débutantes
 2001 : Le Pire du troupeau
 2004 : Beautiful Guys
 2005 : Dionysos impuissant
 2012 : La Faculté
 2012 : Un jeune se tue
-2012 : Nouveau Roman, présenté au Festival d'Avignon, chronique du mouvement littéraire éponyme[36],[37]
+2012 : Nouveau Roman, présenté au Festival d'Avignon, chronique du mouvement littéraire éponyme,
 2015 : Violentes Femmes
 2018 : Les Idoles
 2020 : Dear Prudence
-2021 : Le Ciel de Nantes, une chronique sur sa famille, qui devait être à l'origine un film[38]
-2023 : Les Doyens, comédie sur l'éducation[39]
-Metteur en scène
-2009 : Angelo, tyran de Padoue de Victor Hugo, Festival d'Avignon
+2021 : Le Ciel de Nantes, une chronique sur sa famille, qui devait être à l'origine un film
+2023 : Les Doyens, comédie sur l'éducation
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Christophe_Honoré</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Honor%C3%A9</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Metteur en scène</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2009 : Angelo, tyran de Padoue de Victor Hugo, Festival d'Avignon
 2012 : Nouveau Roman, Festival d'Avignon et Théâtre national de la Colline
 2013 : Dialogues des carmélites de Francis Poulenc, Opéra national de Lyon
 2015 : Fin de l'histoire d'après Witold Gombrowicz, théâtre de Lorient et Théâtre national de la Colline
@@ -732,39 +988,79 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Christophe_Honor%C3%A9</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Christophe_Honor%C3%A9</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Christophe_Honoré</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Honor%C3%A9</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Romans
-1997 : L'Infamille, éditions de l'Olivier  (ISBN 2-87929-143-7)
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1997 : L'Infamille, éditions de l'Olivier  (ISBN 2-87929-143-7)
 1999 : La Douceur, éditions de l'Olivier  (ISBN 2-87929-236-0)
 2002 : Scarborough, éditions de l'Olivier  (ISBN 2-87929-310-3)
 2005 : Le Livre pour enfants, éditions de l'Olivier
-2017 : Ton père, Mercure de France  (ISBN 978-2-7152-3565-6), adapté au théâtre par Thomas Quillardet en 2021[40].
-Romans jeunesse
+2017 : Ton père, Mercure de France  (ISBN 978-2-7152-3565-6), adapté au théâtre par Thomas Quillardet en 2021.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Christophe_Honoré</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Honor%C3%A9</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Romans jeunesse</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1996 : Tout contre Léo, coll. « Neuf », L'École des loisirs
 1996 : C'est plus fort que moi, coll. « Neuf », L'École des loisirs
 1997 : Je joue très bien tout seul, illustrations Nathalie Baetens, coll. « Mouche », L'École des loisirs
@@ -790,53 +1086,160 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Christophe_Honor%C3%A9</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Christophe_Honor%C3%A9</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Christophe_Honoré</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Honor%C3%A9</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Décoration
-2017 : officier dans l'ordre des Arts et des Lettres[41]
-Récompenses
-Fondation Gan pour le cinéma 2000 : prix de l'aide à la création  pour 17 Fois Cécile Cassard
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Décoration</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2017 : officier dans l'ordre des Arts et des Lettres</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Christophe_Honoré</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Honor%C3%A9</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Fondation Gan pour le cinéma 2000 : prix de l'aide à la création  pour 17 Fois Cécile Cassard
 Festival du film de Cabourg 2007 : Meilleur réalisateur pour Les Chansons d'amour
 Festival du film Lovers 2008 de Turin : prix spécial du jury au  pour Les Chansons d'amour
 Festival du cinéma européen de Lecce 2009 : Meilleur scénario pour La Belle Personne
 Salon du livre de jeunesse de Montreuil 2010 : prix Baobab de l'album de jeunesse pour La Règle d'or du cache-cache
 Prix Louis-Delluc 2018 pour Plaire, aimer et courir vite
 Prix de la Critique 2019 pour Les Idoles
-Grand prix de littérature dramatique (catégorie Jeunesse) 2023 pour Dear Prudence
-Nominations
-César 2009 : Meilleure adaptation pour La Belle Personne
+Grand prix de littérature dramatique (catégorie Jeunesse) 2023 pour Dear Prudence</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Christophe_Honoré</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Honor%C3%A9</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>César 2009 : Meilleure adaptation pour La Belle Personne
 Festival de Cannes 2007 : Palme d'Or pour Les Chansons d'amour
 Étoiles d'or du cinéma français  2007 : Meilleur scénario pour Les Chansons d'amour
 Hublot d'Or 2007 : Meilleure Adaptation pour La Belle Personne
 Molières 2022 : Molière de l'auteur francophone vivant pour Le Ciel de Nantes
 Prix Louis-Delluc 2022 pour Le Lycéen
-Prix Lumières 2022 : Meilleur scénario pour Le Lycéen
-Sélections en festivals internationaux
-Festival de Cannes 2002 : sélection officielle section Un certain regard pour 17 Fois Cécile Cassard
+Prix Lumières 2022 : Meilleur scénario pour Le Lycéen</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Christophe_Honoré</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Honor%C3%A9</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Sélections en festivals internationaux</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Festival de Cannes 2002 : sélection officielle section Un certain regard pour 17 Fois Cécile Cassard
 Festival de Cannes 2006 : sélection à la Quinzaine des réalisateurs pour Dans Paris
 Festival international du film de Saint-Sébastien 2008 : compétition officielle pour La Belle Personne
 Festival international du film francophone de Namur 2008 pour La Belle Personne
@@ -852,33 +1255,35 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Christophe_Honor%C3%A9</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Christophe_Honor%C3%A9</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Christophe_Honoré</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Honor%C3%A9</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Box-office</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tableau suivant est établi à partir de la base de données Lumière de l'Observatoire européen de l'audiovisuel. La base de données inclut l'ensemble des entrées dans l'Union européenne depuis 1996[42].
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tableau suivant est établi à partir de la base de données Lumière de l'Observatoire européen de l'audiovisuel. La base de données inclut l'ensemble des entrées dans l'Union européenne depuis 1996.
 </t>
         </is>
       </c>
